--- a/data/英语试卷.xlsx
+++ b/data/英语试卷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>年份</t>
   </si>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>阅读T4没看懂，阅读B和翻译练习少了，都没有感觉。做的时间也很长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写完了然后改错两个，本来完型满的。。T4依然半懂，还需要多看外刊。作文也得练了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +117,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +144,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -136,13 +166,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,9 +186,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -587,6 +631,59 @@
       </c>
       <c r="Q2" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>165</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/英语试卷.xlsx
+++ b/data/英语试卷.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>年份</t>
   </si>
@@ -87,6 +85,22 @@
   </si>
   <si>
     <t>写完了然后改错两个，本来完型满的。。T4依然半懂，还需要多看外刊。作文也得练了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以为很不好，阅读做的时候有点徘徊，纠结了挺长时间，但是分数出来还是可以的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完型做的时候有些纠结，但整体还行；阅读Text1,4爆炸了，Text1几乎全是2选1，Text4看不懂文章。翻译也看不懂。作文还是半吊子，尝试用高级词汇然后拼写错好多</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,6 +204,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -499,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -590,7 +607,7 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>66</v>
       </c>
       <c r="E2" s="1">
@@ -605,28 +622,28 @@
       <c r="H2" s="1">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>13</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>21</v>
       </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="K2" s="3">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2">
         <v>6</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="3">
         <v>4</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="3">
         <v>6</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="3">
         <v>5</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="3">
         <v>10</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -643,7 +660,7 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>70.5</v>
       </c>
       <c r="E3" s="1">
@@ -658,10 +675,10 @@
       <c r="H3" s="1">
         <v>3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>12.5</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>17</v>
       </c>
       <c r="K3" s="4">
@@ -670,20 +687,126 @@
       <c r="L3" s="3">
         <v>12</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
-        <v>3</v>
-      </c>
-      <c r="O3" s="1">
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3">
         <v>5</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="2">
         <v>9</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="F4" s="2">
+        <v>171</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>76</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2">
+        <v>175</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2">
+        <v>18</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -691,30 +814,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/英语试卷.xlsx
+++ b/data/英语试卷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>年份</t>
   </si>
@@ -101,6 +101,14 @@
   </si>
   <si>
     <t>完型做的时候有些纠结，但整体还行；阅读Text1,4爆炸了，Text1几乎全是2选1，Text4看不懂文章。翻译也看不懂。作文还是半吊子，尝试用高级词汇然后拼写错好多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完型感觉爆炸了，不过只错了一个；阅读其实做的很顺的，但是还是错了三个；翻译还是感觉有点难；作文现在有点手感了，不过用词还是偏简单了一点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -108,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +155,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="方正大黑简体"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -192,7 +216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,6 +231,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -516,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -545,60 +578,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
@@ -646,12 +679,12 @@
       <c r="P2" s="3">
         <v>10</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
@@ -699,12 +732,12 @@
       <c r="P3" s="2">
         <v>9</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
@@ -752,12 +785,12 @@
       <c r="P4" s="2">
         <v>9</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1">
@@ -805,9 +838,80 @@
       <c r="P5" s="2">
         <v>9</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="6" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F6" s="2">
+        <v>169</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>17</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>6</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>4</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
